--- a/Analysis/Figure2/output/figure2_statistics.xlsx
+++ b/Analysis/Figure2/output/figure2_statistics.xlsx
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -628,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1434,7 +1434,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1466,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1498,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -1530,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -2121,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -2156,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -2191,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -2226,7 +2226,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
